--- a/dynamic/results/PCLR_ST001047.xlsx
+++ b/dynamic/results/PCLR_ST001047.xlsx
@@ -390,44 +390,44 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="B3" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="C3" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.759999999999999e-09</v>
+        <v>3.84e-14</v>
       </c>
       <c r="B4" t="n">
-        <v>9.759999999999999e-09</v>
+        <v>3.84e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>9.759999999999999e-09</v>
+        <v>3.84e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00993</v>
+        <v>0.00044</v>
       </c>
     </row>
   </sheetData>
